--- a/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/竞品与九音对比/TI VS Soundec.xlsx
+++ b/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/竞品与九音对比/TI VS Soundec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\TI&amp;ADI资料\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\SNC8x\01)竞品分析\00)竞品芯片分析\竞品与九音对比\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3D396-F816-4972-BF83-BFD2D5D789E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A5586-27F2-4376-AAFC-B862E55557D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模数转换器" sheetId="1" r:id="rId1"/>
@@ -2688,7 +2688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2710,9 +2710,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3007,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4123,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63F3DB-FD06-4E60-BFAC-810FE78D830E}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6204,7 +6201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF936A9-986E-487C-B768-8D399BDE28C9}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6219,638 +6216,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>8</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>12</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>62.5</v>
       </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
         <v>2.5</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>-5</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>21</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>16</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>12</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>12</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>87</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>-12.5</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>12.5</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>-10</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>12</v>
       </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
         <v>-5</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>12</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>87</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>-12.5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>12.5</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>-10</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>16</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>12</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>12</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>8</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>500</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>-5</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>5</v>
       </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
         <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>10</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>12</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>500</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
         <v>5</v>
       </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>10</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>12</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>500</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
         <v>5</v>
       </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>16</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>12</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>12</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>12</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>100</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
         <v>5</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>16</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>12</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>12</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>12</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>8</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>500</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>-5</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>5</v>
       </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
         <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>12</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>12</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>200</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
         <v>5</v>
       </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>12</v>
       </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>100</v>
       </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
         <v>5</v>
       </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11" t="s">
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>780</v>
       </c>
     </row>
@@ -6884,2402 +6881,2402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>3</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>212.8</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>745</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="9">
         <v>4</v>
       </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="9">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>4</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>4</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>4</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1000</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="9">
         <v>4</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1000</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>4</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1000</v>
       </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="9">
         <v>4</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>4</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>720</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="9">
         <v>4</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>4</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>456</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>600</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>430</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>4</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>3</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>720</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>520</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>4</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>3</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>300</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>300</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="J14" s="10">
-        <v>2</v>
-      </c>
-      <c r="K14" s="10">
-        <v>2</v>
-      </c>
-      <c r="L14" s="10" t="s">
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="9">
         <v>600</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="9">
         <v>3</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>297</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>594</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="E19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>3</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="K19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="C20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="D21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="I21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>2.23</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="C23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="C24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="C25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="10" t="s">
+      <c r="C26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>1</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>1</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="E28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="9">
         <v>200</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>1</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>1</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="K29" s="10">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10" t="s">
+      <c r="K29" s="9">
+        <v>2</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="F30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10">
-        <v>2</v>
-      </c>
-      <c r="L30" s="10" t="s">
+      <c r="J30" s="9">
+        <v>2</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="E31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="J31" s="10">
-        <v>2</v>
-      </c>
-      <c r="K31" s="10">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10" t="s">
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="E32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="J32" s="10">
-        <v>2</v>
-      </c>
-      <c r="K32" s="10">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10" t="s">
+      <c r="J32" s="9">
+        <v>2</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="E33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="J33" s="10">
-        <v>2</v>
-      </c>
-      <c r="K33" s="10">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10" t="s">
+      <c r="J33" s="9">
+        <v>2</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="G34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="9">
         <v>3</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>1</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="9">
         <v>3</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>1</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="C36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>1</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>1</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>300</v>
       </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="10">
+      <c r="I37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="9">
         <v>5</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>1</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>432</v>
       </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="10">
+      <c r="I38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="9">
         <v>5</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>1</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>432</v>
       </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11" t="s">
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I39" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="9">
         <v>5</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>1</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="10">
+      <c r="E40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="9">
         <v>400</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="10">
+      <c r="I40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="9">
         <v>1</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="E41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="9">
         <v>500</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="10">
+      <c r="I41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="9">
         <v>1</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="9" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="10">
+      <c r="I42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="9">
         <v>1</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="9" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="E43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" s="10">
+      <c r="I43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="9">
         <v>1</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
         <v>300</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
+      <c r="I44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
         <v>1</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="9" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10">
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
         <v>300</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-      <c r="K45" s="10">
+      <c r="I45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
         <v>1</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="9" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I46" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-      <c r="K46" s="10">
+      <c r="I46" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
         <v>1</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="9" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
         <v>1</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="9" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="C48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K48" s="10">
+      <c r="J48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K48" s="9">
         <v>1</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="9" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0</v>
-      </c>
-      <c r="K49" s="10">
+      <c r="I49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
         <v>1</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="9" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="11" t="s">
+      <c r="C50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K50" s="10">
+      <c r="J50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" s="9">
         <v>1</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="9" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="10">
+      <c r="I51" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="9">
         <v>1</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>1</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="9" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>297</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>594</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I52" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" s="10">
+      <c r="I52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="9">
         <v>1</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>1</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="9" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J53" s="10">
+      <c r="I53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>1</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="9" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="9">
         <v>1</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>1</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="9" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>500</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>1000</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>1</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="9">
         <v>1</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="9" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="10">
+      <c r="I56" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
         <v>1</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="9" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="J57" s="10">
-        <v>0</v>
-      </c>
-      <c r="K57" s="10">
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
         <v>1</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="9" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>1000</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>750</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J58" s="10">
+      <c r="I58" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="9">
         <v>4</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="9">
         <v>4</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="9" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>1000</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>750</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>4</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="9">
         <v>4</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="9" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>1000</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>750</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="9">
         <v>4</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="9">
         <v>4</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="9" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>1200</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>1000</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>1</v>
       </c>
-      <c r="K61" s="10">
-        <v>2</v>
-      </c>
-      <c r="L61" s="10" t="s">
+      <c r="K61" s="9">
+        <v>2</v>
+      </c>
+      <c r="L61" s="9" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>1200</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>1000</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>1</v>
       </c>
-      <c r="K62" s="10">
-        <v>2</v>
-      </c>
-      <c r="L62" s="10" t="s">
+      <c r="K62" s="9">
+        <v>2</v>
+      </c>
+      <c r="L62" s="9" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>1200</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>1000</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>1</v>
       </c>
-      <c r="K63" s="10">
-        <v>2</v>
-      </c>
-      <c r="L63" s="10" t="s">
+      <c r="K63" s="9">
+        <v>2</v>
+      </c>
+      <c r="L63" s="9" t="s">
         <v>722</v>
       </c>
     </row>
@@ -9295,7 +9292,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -11734,26 +11731,26 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="9">
-        <v>2</v>
-      </c>
-      <c r="E65" s="9">
-        <v>2</v>
-      </c>
-      <c r="F65" s="9">
-        <v>2</v>
-      </c>
-      <c r="G65" s="9">
-        <v>2</v>
-      </c>
-      <c r="H65" s="9">
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
         <v>192</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="1">
         <v>95</v>
       </c>
       <c r="J65" s="5"/>
-      <c r="K65" s="9">
+      <c r="K65" s="1">
         <v>100</v>
       </c>
       <c r="L65" s="5"/>
